--- a/Stimuli.xlsx
+++ b/Stimuli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Abbr." sheetId="4" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3193,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K49"/>
     </sheetView>
   </sheetViews>
@@ -5002,7 +5002,7 @@
     <row r="2" spans="1:16">
       <c r="A2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.63743349653339143</v>
+        <v>0.67379672938529811</v>
       </c>
       <c r="B2">
         <v>73</v>
@@ -5053,7 +5053,7 @@
     <row r="3" spans="1:16">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96506074563748212</v>
+        <v>0.83867617314739507</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -5104,7 +5104,7 @@
     <row r="4" spans="1:16">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6987961554599933</v>
+        <v>0.6079787620616135</v>
       </c>
       <c r="B4">
         <v>86</v>
@@ -5155,7 +5155,7 @@
     <row r="5" spans="1:16">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3034439753394955E-2</v>
+        <v>0.32703557930264571</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -5206,7 +5206,7 @@
     <row r="6" spans="1:16">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60975864830290682</v>
+        <v>0.56479988064438025</v>
       </c>
       <c r="B6">
         <v>61</v>
@@ -5257,7 +5257,7 @@
     <row r="7" spans="1:16">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67118867461561726</v>
+        <v>0.95112477265940032</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -5308,7 +5308,7 @@
     <row r="8" spans="1:16">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8307403261516737</v>
+        <v>0.12813041297355199</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5359,7 +5359,7 @@
     <row r="9" spans="1:16">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2825343053564779E-2</v>
+        <v>0.7000644994412204</v>
       </c>
       <c r="B9">
         <v>83</v>
@@ -5410,7 +5410,7 @@
     <row r="10" spans="1:16">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27273143092412</v>
+        <v>0.59389152321727223</v>
       </c>
       <c r="B10">
         <v>48</v>
@@ -5461,7 +5461,7 @@
     <row r="11" spans="1:16">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63855891916537888</v>
+        <v>0.34731173723309461</v>
       </c>
       <c r="B11">
         <v>91</v>
@@ -5512,7 +5512,7 @@
     <row r="12" spans="1:16">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76731936325599004</v>
+        <v>0.79433804241558437</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -5563,7 +5563,7 @@
     <row r="13" spans="1:16">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43428132318836932</v>
+        <v>0.59053176300241339</v>
       </c>
       <c r="B13">
         <v>95</v>
@@ -5614,7 +5614,7 @@
     <row r="14" spans="1:16">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8419628974475502E-2</v>
+        <v>0.22200516971974338</v>
       </c>
       <c r="B14">
         <v>42</v>
@@ -5665,7 +5665,7 @@
     <row r="15" spans="1:16">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19647299746951896</v>
+        <v>0.36428133705887578</v>
       </c>
       <c r="B15">
         <v>84</v>
@@ -5716,7 +5716,7 @@
     <row r="16" spans="1:16">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11328100204828673</v>
+        <v>0.22905148866455649</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -5767,7 +5767,7 @@
     <row r="17" spans="1:16">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31147863291807498</v>
+        <v>0.42757806534093912</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -5818,7 +5818,7 @@
     <row r="18" spans="1:16">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73521657128902507</v>
+        <v>0.54737256885342367</v>
       </c>
       <c r="B18">
         <v>94</v>
@@ -5869,7 +5869,7 @@
     <row r="19" spans="1:16">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48784381719537018</v>
+        <v>0.80099402345115311</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -5920,7 +5920,7 @@
     <row r="20" spans="1:16">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54774098824651329</v>
+        <v>4.7251082651856069E-2</v>
       </c>
       <c r="B20">
         <v>70</v>
@@ -5971,7 +5971,7 @@
     <row r="21" spans="1:16">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6396721800963926</v>
+        <v>0.19681417386614031</v>
       </c>
       <c r="B21">
         <v>78</v>
@@ -6022,7 +6022,7 @@
     <row r="22" spans="1:16">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1677235066322602E-2</v>
+        <v>9.5724316288943401E-2</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -6073,7 +6073,7 @@
     <row r="23" spans="1:16">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97836058827713812</v>
+        <v>0.90996079116430206</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -6124,7 +6124,7 @@
     <row r="24" spans="1:16">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65541262654688948</v>
+        <v>0.12790334465925746</v>
       </c>
       <c r="B24">
         <v>15</v>
@@ -6175,7 +6175,7 @@
     <row r="25" spans="1:16">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4336645449283576</v>
+        <v>0.78396215902387512</v>
       </c>
       <c r="B25">
         <v>98</v>
@@ -6226,7 +6226,7 @@
     <row r="26" spans="1:16">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19367464176302229</v>
+        <v>0.49600161672814236</v>
       </c>
       <c r="B26">
         <v>87</v>
@@ -6277,7 +6277,7 @@
     <row r="27" spans="1:16">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79797948050065137</v>
+        <v>0.92486450259908493</v>
       </c>
       <c r="B27">
         <v>33</v>
@@ -6328,7 +6328,7 @@
     <row r="28" spans="1:16">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88656193422011464</v>
+        <v>0.47062218744225559</v>
       </c>
       <c r="B28">
         <v>82</v>
@@ -6379,7 +6379,7 @@
     <row r="29" spans="1:16">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9598775527580371</v>
+        <v>0.76381607825777698</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -6430,7 +6430,7 @@
     <row r="30" spans="1:16">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20185309503741233</v>
+        <v>0.79925533073117883</v>
       </c>
       <c r="B30">
         <v>92</v>
@@ -6481,7 +6481,7 @@
     <row r="31" spans="1:16">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69674205523128663</v>
+        <v>0.35044157479261051</v>
       </c>
       <c r="B31">
         <v>68</v>
@@ -6532,7 +6532,7 @@
     <row r="32" spans="1:16">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49429457837957014</v>
+        <v>0.61107757085360237</v>
       </c>
       <c r="B32">
         <v>23</v>
@@ -6583,7 +6583,7 @@
     <row r="33" spans="1:16">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19872644772216241</v>
+        <v>0.96561212452272038</v>
       </c>
       <c r="B33">
         <v>62</v>
@@ -6634,7 +6634,7 @@
     <row r="34" spans="1:16">
       <c r="A34">
         <f t="shared" ref="A34:A67" ca="1" si="1">RAND()</f>
-        <v>0.98153373990271731</v>
+        <v>0.1411142956515633</v>
       </c>
       <c r="B34">
         <v>46</v>
@@ -6685,7 +6685,7 @@
     <row r="35" spans="1:16">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83263273729184328</v>
+        <v>0.40473131879979696</v>
       </c>
       <c r="B35">
         <v>97</v>
@@ -6736,7 +6736,7 @@
     <row r="36" spans="1:16">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0058843908017217E-2</v>
+        <v>0.36941418502180312</v>
       </c>
       <c r="B36">
         <v>71</v>
@@ -6787,7 +6787,7 @@
     <row r="37" spans="1:16">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44632475554253381</v>
+        <v>0.4226157386338828</v>
       </c>
       <c r="B37">
         <v>89</v>
@@ -6838,7 +6838,7 @@
     <row r="38" spans="1:16">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98997436028492558</v>
+        <v>0.47399288339214762</v>
       </c>
       <c r="B38">
         <v>29</v>
@@ -6889,7 +6889,7 @@
     <row r="39" spans="1:16">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70021103338637947</v>
+        <v>0.80396801228427206</v>
       </c>
       <c r="B39">
         <v>75</v>
@@ -6940,7 +6940,7 @@
     <row r="40" spans="1:16">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2107190915501618E-2</v>
+        <v>0.17247678050415138</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -6991,7 +6991,7 @@
     <row r="41" spans="1:16">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45513340422882276</v>
+        <v>0.24869972990019495</v>
       </c>
       <c r="B41">
         <v>99</v>
@@ -7042,7 +7042,7 @@
     <row r="42" spans="1:16">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6295231418515721</v>
+        <v>0.35567469502069893</v>
       </c>
       <c r="B42">
         <v>85</v>
@@ -7093,7 +7093,7 @@
     <row r="43" spans="1:16">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73726918208548897</v>
+        <v>0.62976688111022772</v>
       </c>
       <c r="B43">
         <v>88</v>
@@ -7144,7 +7144,7 @@
     <row r="44" spans="1:16">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13607471358723611</v>
+        <v>0.55855896326433696</v>
       </c>
       <c r="B44">
         <v>69</v>
@@ -7195,7 +7195,7 @@
     <row r="45" spans="1:16">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31944707701781105</v>
+        <v>1.4884609221652023E-2</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -7246,7 +7246,7 @@
     <row r="46" spans="1:16">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69186436960737729</v>
+        <v>0.83923038477599277</v>
       </c>
       <c r="B46">
         <v>90</v>
@@ -7297,7 +7297,7 @@
     <row r="47" spans="1:16">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49416567357034014</v>
+        <v>9.7610491544063316E-2</v>
       </c>
       <c r="B47">
         <v>74</v>
@@ -7348,7 +7348,7 @@
     <row r="48" spans="1:16">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25227262956251006</v>
+        <v>0.69979403835160248</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -7399,7 +7399,7 @@
     <row r="49" spans="1:16">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2333767156287938E-2</v>
+        <v>0.17828953597951214</v>
       </c>
       <c r="B49">
         <v>101</v>
@@ -7450,7 +7450,7 @@
     <row r="50" spans="1:16">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74889618799884339</v>
+        <v>0.26079416739255823</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -7501,7 +7501,7 @@
     <row r="51" spans="1:16">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73353843502324478</v>
+        <v>0.79156977865042599</v>
       </c>
       <c r="B51">
         <v>100</v>
@@ -7552,7 +7552,7 @@
     <row r="52" spans="1:16">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40681712078489551</v>
+        <v>0.28563259004168207</v>
       </c>
       <c r="B52">
         <v>38</v>
@@ -7603,7 +7603,7 @@
     <row r="53" spans="1:16">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86979816073529947</v>
+        <v>0.72571501536342464</v>
       </c>
       <c r="B53">
         <v>76</v>
@@ -7654,7 +7654,7 @@
     <row r="54" spans="1:16">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60656134603525924</v>
+        <v>0.96745390347316162</v>
       </c>
       <c r="B54">
         <v>93</v>
@@ -7705,7 +7705,7 @@
     <row r="55" spans="1:16">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27584580782128876</v>
+        <v>0.51172214251166692</v>
       </c>
       <c r="B55">
         <v>40</v>
@@ -7756,7 +7756,7 @@
     <row r="56" spans="1:16">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14994508816593177</v>
+        <v>0.70077316738636874</v>
       </c>
       <c r="B56">
         <v>96</v>
@@ -7807,7 +7807,7 @@
     <row r="57" spans="1:16">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42322818428308806</v>
+        <v>0.31936864661196196</v>
       </c>
       <c r="B57">
         <v>66</v>
@@ -7858,7 +7858,7 @@
     <row r="58" spans="1:16">
       <c r="A58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19630677147146436</v>
+        <v>0.75680796516955073</v>
       </c>
       <c r="B58">
         <v>21</v>
@@ -7909,7 +7909,7 @@
     <row r="59" spans="1:16">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70429750804744395</v>
+        <v>0.65286791893539375</v>
       </c>
       <c r="B59">
         <v>64</v>
@@ -7960,7 +7960,7 @@
     <row r="60" spans="1:16">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65071331676403155</v>
+        <v>0.85969587549515081</v>
       </c>
       <c r="B60">
         <v>80</v>
@@ -8011,7 +8011,7 @@
     <row r="61" spans="1:16">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65083240903778772</v>
+        <v>0.958310474624541</v>
       </c>
       <c r="B61">
         <v>67</v>
@@ -8062,7 +8062,7 @@
     <row r="62" spans="1:16">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62126631434641544</v>
+        <v>0.65412347434751894</v>
       </c>
       <c r="B62">
         <v>81</v>
@@ -8113,7 +8113,7 @@
     <row r="63" spans="1:16">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42824529357952645</v>
+        <v>0.84526826794367893</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8164,7 +8164,7 @@
     <row r="64" spans="1:16">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71116611452383294</v>
+        <v>0.10138232084084975</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -8215,7 +8215,7 @@
     <row r="65" spans="1:16">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37860951115302177</v>
+        <v>0.75311347886778912</v>
       </c>
       <c r="B65">
         <v>79</v>
@@ -8266,7 +8266,7 @@
     <row r="66" spans="1:16">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2027148371519284</v>
+        <v>0.30102548284181541</v>
       </c>
       <c r="B66">
         <v>31</v>
@@ -8317,7 +8317,7 @@
     <row r="67" spans="1:16">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7474212528709534</v>
+        <v>0.20856539229154281</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -8447,7 +8447,7 @@
     <row r="2" spans="1:16">
       <c r="A2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.40953152811162086</v>
+        <v>0.40120143170833322</v>
       </c>
       <c r="B2">
         <v>88</v>
@@ -8498,7 +8498,7 @@
     <row r="3" spans="1:16">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97984073325273391</v>
+        <v>0.37312943218667316</v>
       </c>
       <c r="B3">
         <v>39</v>
@@ -8549,7 +8549,7 @@
     <row r="4" spans="1:16">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68664116045963808</v>
+        <v>0.36780714003045911</v>
       </c>
       <c r="B4">
         <v>73</v>
@@ -8600,7 +8600,7 @@
     <row r="5" spans="1:16">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2348321227306247</v>
+        <v>0.87887861328387429</v>
       </c>
       <c r="B5">
         <v>65</v>
@@ -8651,7 +8651,7 @@
     <row r="6" spans="1:16">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51161080014719373</v>
+        <v>0.69970658972515221</v>
       </c>
       <c r="B6">
         <v>63</v>
@@ -8702,7 +8702,7 @@
     <row r="7" spans="1:16">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27445198821380212</v>
+        <v>0.80411980433201691</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -8753,7 +8753,7 @@
     <row r="8" spans="1:16">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49637299270951385</v>
+        <v>0.46973316463286441</v>
       </c>
       <c r="B8">
         <v>78</v>
@@ -8804,7 +8804,7 @@
     <row r="9" spans="1:16">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57335322904917518</v>
+        <v>0.82932469846617907</v>
       </c>
       <c r="B9">
         <v>79</v>
@@ -8855,7 +8855,7 @@
     <row r="10" spans="1:16">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5535673997588153</v>
+        <v>0.79348572623562663</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -8906,7 +8906,7 @@
     <row r="11" spans="1:16">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11754325850096936</v>
+        <v>0.65667399845581187</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -8957,7 +8957,7 @@
     <row r="12" spans="1:16">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22037791715531663</v>
+        <v>0.76907006629801211</v>
       </c>
       <c r="B12">
         <v>83</v>
@@ -9008,7 +9008,7 @@
     <row r="13" spans="1:16">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34786355010072612</v>
+        <v>0.66196854360755875</v>
       </c>
       <c r="B13">
         <v>32</v>
@@ -9059,7 +9059,7 @@
     <row r="14" spans="1:16">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31954173241655059</v>
+        <v>0.67144295173667123</v>
       </c>
       <c r="B14">
         <v>95</v>
@@ -9110,7 +9110,7 @@
     <row r="15" spans="1:16">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84216392855061672</v>
+        <v>0.97412944553754599</v>
       </c>
       <c r="B15">
         <v>81</v>
@@ -9161,7 +9161,7 @@
     <row r="16" spans="1:16">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66408514421319098</v>
+        <v>0.26039401547092056</v>
       </c>
       <c r="B16">
         <v>37</v>
@@ -9212,7 +9212,7 @@
     <row r="17" spans="1:16">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58495152083613555</v>
+        <v>0.64369503033223552</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -9263,7 +9263,7 @@
     <row r="18" spans="1:16">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29045432833636498</v>
+        <v>0.90390763017400777</v>
       </c>
       <c r="B18">
         <v>45</v>
@@ -9314,7 +9314,7 @@
     <row r="19" spans="1:16">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27464470447061851</v>
+        <v>6.9911179924528E-2</v>
       </c>
       <c r="B19">
         <v>93</v>
@@ -9365,7 +9365,7 @@
     <row r="20" spans="1:16">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0083891539313279E-2</v>
+        <v>0.9444431104744847</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -9416,7 +9416,7 @@
     <row r="21" spans="1:16">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20303749202083932</v>
+        <v>4.7229349795851361E-2</v>
       </c>
       <c r="B21">
         <v>71</v>
@@ -9467,7 +9467,7 @@
     <row r="22" spans="1:16">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40091050866577627</v>
+        <v>0.68910038925710415</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9518,7 +9518,7 @@
     <row r="23" spans="1:16">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10267541112164225</v>
+        <v>0.15697825285040512</v>
       </c>
       <c r="B23">
         <v>89</v>
@@ -9569,7 +9569,7 @@
     <row r="24" spans="1:16">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26616318946714002</v>
+        <v>6.0103719120825683E-2</v>
       </c>
       <c r="B24">
         <v>91</v>
@@ -9620,7 +9620,7 @@
     <row r="25" spans="1:16">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22057977791485905</v>
+        <v>0.36981304574668949</v>
       </c>
       <c r="B25">
         <v>74</v>
@@ -9671,7 +9671,7 @@
     <row r="26" spans="1:16">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9085599907185085E-2</v>
+        <v>0.63584164116824748</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -9722,7 +9722,7 @@
     <row r="27" spans="1:16">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65096976674545171</v>
+        <v>0.78051018114955972</v>
       </c>
       <c r="B27">
         <v>85</v>
@@ -9773,7 +9773,7 @@
     <row r="28" spans="1:16">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82426916976202602</v>
+        <v>0.6838582310728718</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9824,7 +9824,7 @@
     <row r="29" spans="1:16">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66297156052847872</v>
+        <v>0.2009367112586351</v>
       </c>
       <c r="B29">
         <v>66</v>
@@ -9875,7 +9875,7 @@
     <row r="30" spans="1:16">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43090739025431624</v>
+        <v>0.93554918657865449</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -9926,7 +9926,7 @@
     <row r="31" spans="1:16">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3910507170712848</v>
+        <v>0.3068945100760373</v>
       </c>
       <c r="B31">
         <v>87</v>
@@ -9977,7 +9977,7 @@
     <row r="32" spans="1:16">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83561900767567832</v>
+        <v>0.86919710972464859</v>
       </c>
       <c r="B32">
         <v>69</v>
@@ -10028,7 +10028,7 @@
     <row r="33" spans="1:16">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74646654057175166</v>
+        <v>0.14160089143414023</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -10079,7 +10079,7 @@
     <row r="34" spans="1:16">
       <c r="A34">
         <f t="shared" ref="A34:A67" ca="1" si="1">RAND()</f>
-        <v>0.12083985697568822</v>
+        <v>0.35000249389584204</v>
       </c>
       <c r="B34">
         <v>86</v>
@@ -10130,7 +10130,7 @@
     <row r="35" spans="1:16">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3287299091726591</v>
+        <v>1.5248393335955956E-2</v>
       </c>
       <c r="B35">
         <v>96</v>
@@ -10181,7 +10181,7 @@
     <row r="36" spans="1:16">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0974462301406862E-2</v>
+        <v>0.87336836917554328</v>
       </c>
       <c r="B36">
         <v>22</v>
@@ -10232,7 +10232,7 @@
     <row r="37" spans="1:16">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69262860999640863</v>
+        <v>0.28618555708505478</v>
       </c>
       <c r="B37">
         <v>72</v>
@@ -10283,7 +10283,7 @@
     <row r="38" spans="1:16">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0761143274225566E-2</v>
+        <v>0.36086988810971254</v>
       </c>
       <c r="B38">
         <v>97</v>
@@ -10334,7 +10334,7 @@
     <row r="39" spans="1:16">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21002294651511411</v>
+        <v>0.86122410805263516</v>
       </c>
       <c r="B39">
         <v>70</v>
@@ -10385,7 +10385,7 @@
     <row r="40" spans="1:16">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24983160846276586</v>
+        <v>0.2180090947635982</v>
       </c>
       <c r="B40">
         <v>47</v>
@@ -10436,7 +10436,7 @@
     <row r="41" spans="1:16">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50762769048723688</v>
+        <v>0.45073529620806807</v>
       </c>
       <c r="B41">
         <v>64</v>
@@ -10487,7 +10487,7 @@
     <row r="42" spans="1:16">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46089087767145653</v>
+        <v>0.89915212344480044</v>
       </c>
       <c r="B42">
         <v>62</v>
@@ -10538,7 +10538,7 @@
     <row r="43" spans="1:16">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93622089104673856</v>
+        <v>0.80108432586646949</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -10589,7 +10589,7 @@
     <row r="44" spans="1:16">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70116596377493534</v>
+        <v>0.85670442872411912</v>
       </c>
       <c r="B44">
         <v>77</v>
@@ -10640,7 +10640,7 @@
     <row r="45" spans="1:16">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42417016122388385</v>
+        <v>0.25137927238487834</v>
       </c>
       <c r="B45">
         <v>60</v>
@@ -10691,7 +10691,7 @@
     <row r="46" spans="1:16">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75307522782858383</v>
+        <v>0.15495900516915984</v>
       </c>
       <c r="B46">
         <v>98</v>
@@ -10742,7 +10742,7 @@
     <row r="47" spans="1:16">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>4.16561636309003E-2</v>
+        <v>0.63290192518766697</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -10793,7 +10793,7 @@
     <row r="48" spans="1:16">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27159102290298998</v>
+        <v>5.1800014250229287E-2</v>
       </c>
       <c r="B48">
         <v>99</v>
@@ -10844,7 +10844,7 @@
     <row r="49" spans="1:16">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9734975196397222</v>
+        <v>0.55091566748473764</v>
       </c>
       <c r="B49">
         <v>41</v>
@@ -10895,7 +10895,7 @@
     <row r="50" spans="1:16">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47413795554051852</v>
+        <v>0.42413186021635818</v>
       </c>
       <c r="B50">
         <v>94</v>
@@ -10946,7 +10946,7 @@
     <row r="51" spans="1:16">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78763619326646572</v>
+        <v>0.51204976940610247</v>
       </c>
       <c r="B51">
         <v>36</v>
@@ -10997,7 +10997,7 @@
     <row r="52" spans="1:16">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0609736121714386E-2</v>
+        <v>5.3218522503778676E-2</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -11048,7 +11048,7 @@
     <row r="53" spans="1:16">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43813371776535159</v>
+        <v>0.86484706360073116</v>
       </c>
       <c r="B53">
         <v>82</v>
@@ -11099,7 +11099,7 @@
     <row r="54" spans="1:16">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13866151777164293</v>
+        <v>0.58474734897207881</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -11150,7 +11150,7 @@
     <row r="55" spans="1:16">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6958890928251743</v>
+        <v>0.70604805372567792</v>
       </c>
       <c r="B55">
         <v>84</v>
@@ -11201,7 +11201,7 @@
     <row r="56" spans="1:16">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80016153154047598</v>
+        <v>0.76738005591214853</v>
       </c>
       <c r="B56">
         <v>61</v>
@@ -11252,7 +11252,7 @@
     <row r="57" spans="1:16">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7234417266653366E-2</v>
+        <v>0.35611463806783805</v>
       </c>
       <c r="B57">
         <v>43</v>
@@ -11303,7 +11303,7 @@
     <row r="58" spans="1:16">
       <c r="A58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49274907582178173</v>
+        <v>5.7255733357345351E-3</v>
       </c>
       <c r="B58">
         <v>80</v>
@@ -11354,7 +11354,7 @@
     <row r="59" spans="1:16">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69623502127099757</v>
+        <v>0.87119253359598492</v>
       </c>
       <c r="B59">
         <v>24</v>
@@ -11405,7 +11405,7 @@
     <row r="60" spans="1:16">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76116233900753361</v>
+        <v>0.41275682266993574</v>
       </c>
       <c r="B60">
         <v>92</v>
@@ -11456,7 +11456,7 @@
     <row r="61" spans="1:16">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93633802266740962</v>
+        <v>0.22676059149920047</v>
       </c>
       <c r="B61">
         <v>101</v>
@@ -11507,7 +11507,7 @@
     <row r="62" spans="1:16">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42709948769358064</v>
+        <v>0.70246968866329595</v>
       </c>
       <c r="B62">
         <v>68</v>
@@ -11558,7 +11558,7 @@
     <row r="63" spans="1:16">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14508816160794746</v>
+        <v>0.84217729578063727</v>
       </c>
       <c r="B63">
         <v>26</v>
@@ -11609,7 +11609,7 @@
     <row r="64" spans="1:16">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98151952685397303</v>
+        <v>0.41145235147836734</v>
       </c>
       <c r="B64">
         <v>76</v>
@@ -11660,7 +11660,7 @@
     <row r="65" spans="1:16">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40860111621275519</v>
+        <v>0.88569865581406126</v>
       </c>
       <c r="B65">
         <v>14</v>
@@ -11711,7 +11711,7 @@
     <row r="66" spans="1:16">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7574384897865547</v>
+        <v>0.42949075135919335</v>
       </c>
       <c r="B66">
         <v>67</v>
@@ -11762,7 +11762,7 @@
     <row r="67" spans="1:16">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23551066985027025</v>
+        <v>0.50295241423874737</v>
       </c>
       <c r="B67">
         <v>30</v>
